--- a/Paper Experiment - QAOA/Data - QAOA.xlsx
+++ b/Paper Experiment - QAOA/Data - QAOA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1996\Google Drive\Lehigh\Research\Jupyter_Code\Paper Experiment - QAOA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1996\Google Drive\Lehigh\Research\Jupyter_Code\Error-Characterization-and-Mitigation\Paper Experiment - QAOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA09674-F31C-409A-B457-5D25E6FD6D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5980D562-A69E-440F-BCA9-0C573CD6724B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="3900" windowWidth="16410" windowHeight="9465" activeTab="1" xr2:uid="{2FF29928-957A-4511-8D87-D20BD31A3ADE}"/>
+    <workbookView xWindow="13065" yWindow="3855" windowWidth="20730" windowHeight="11835" xr2:uid="{2FF29928-957A-4511-8D87-D20BD31A3ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="M2" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411EB00-4164-4E89-B8A3-A6B86EB04EFC}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4299C0F4-6624-4FE7-B9AB-C1CE2F66A942}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
